--- a/GenTables.xlsx
+++ b/GenTables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
   <si>
     <t>Insufficient Energy Events All Year</t>
   </si>
@@ -36,6 +36,21 @@
   <si>
     <t>Generator Operating Hours Seasonal: Month 11 to 2</t>
   </si>
+  <si>
+    <t>0.5 kW Load</t>
+  </si>
+  <si>
+    <t>0.75 kW Load</t>
+  </si>
+  <si>
+    <t>1 kW Load</t>
+  </si>
+  <si>
+    <t>Generator Operating Hours over 21 Years (All Year)</t>
+  </si>
+  <si>
+    <t>Generator Operating Hours over 21 Years (Seasonal: Month 11 to 2)</t>
+  </si>
 </sst>
 </file>
 
@@ -55,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -95,11 +110,43 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -133,6 +180,38 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,53 +221,1109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:BE15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="true"/>
-    <col min="2" max="2" width="5.140625" customWidth="true"/>
+    <col min="1" max="1" width="59.7109375" customWidth="true"/>
+    <col min="2" max="2" width="6.140625" customWidth="true"/>
+    <col min="3" max="3" width="6.140625" customWidth="true"/>
+    <col min="4" max="4" width="7.140625" customWidth="true"/>
+    <col min="5" max="5" width="7.140625" customWidth="true"/>
+    <col min="6" max="6" width="7.140625" customWidth="true"/>
+    <col min="7" max="7" width="7.140625" customWidth="true"/>
+    <col min="8" max="8" width="7.140625" customWidth="true"/>
+    <col min="9" max="9" width="7.140625" customWidth="true"/>
+    <col min="10" max="10" width="6.140625" customWidth="true"/>
+    <col min="11" max="11" width="6.140625" customWidth="true"/>
+    <col min="12" max="12" width="6.140625" customWidth="true"/>
+    <col min="13" max="13" width="6.140625" customWidth="true"/>
+    <col min="14" max="14" width="7.140625" customWidth="true"/>
+    <col min="15" max="15" width="7.140625" customWidth="true"/>
+    <col min="16" max="16" width="7.140625" customWidth="true"/>
+    <col min="17" max="17" width="7.140625" customWidth="true"/>
+    <col min="18" max="18" width="6.140625" customWidth="true"/>
+    <col min="19" max="19" width="6.140625" customWidth="true"/>
+    <col min="20" max="20" width="6.140625" customWidth="true"/>
+    <col min="21" max="21" width="6.140625" customWidth="true"/>
+    <col min="22" max="22" width="6.140625" customWidth="true"/>
+    <col min="23" max="23" width="6.140625" customWidth="true"/>
+    <col min="24" max="24" width="7.140625" customWidth="true"/>
+    <col min="25" max="25" width="7.140625" customWidth="true"/>
+    <col min="26" max="26" width="6.140625" customWidth="true"/>
+    <col min="27" max="27" width="6.140625" customWidth="true"/>
+    <col min="28" max="28" width="6.140625" customWidth="true"/>
+    <col min="29" max="29" width="6.140625" customWidth="true"/>
+    <col min="30" max="30" width="6.140625" customWidth="true"/>
+    <col min="31" max="31" width="6.140625" customWidth="true"/>
+    <col min="32" max="32" width="6.140625" customWidth="true"/>
+    <col min="33" max="33" width="6.140625" customWidth="true"/>
+    <col min="34" max="34" width="6.140625" customWidth="true"/>
+    <col min="35" max="35" width="6.140625" customWidth="true"/>
+    <col min="36" max="36" width="5.140625" customWidth="true"/>
+    <col min="37" max="37" width="5.140625" customWidth="true"/>
+    <col min="38" max="38" width="5.140625" customWidth="true"/>
+    <col min="39" max="39" width="5.140625" customWidth="true"/>
+    <col min="40" max="40" width="4.140625" customWidth="true"/>
+    <col min="41" max="41" width="4.140625" customWidth="true"/>
+    <col min="42" max="42" width="6.140625" customWidth="true"/>
+    <col min="43" max="43" width="6.140625" customWidth="true"/>
+    <col min="44" max="44" width="5.140625" customWidth="true"/>
+    <col min="45" max="45" width="5.140625" customWidth="true"/>
+    <col min="46" max="46" width="5.140625" customWidth="true"/>
+    <col min="47" max="47" width="4.140625" customWidth="true"/>
+    <col min="48" max="48" width="4.140625" customWidth="true"/>
+    <col min="49" max="49" width="3.140625" customWidth="true"/>
+    <col min="50" max="50" width="6.140625" customWidth="true"/>
+    <col min="51" max="51" width="6.140625" customWidth="true"/>
+    <col min="52" max="52" width="5.140625" customWidth="true"/>
+    <col min="53" max="53" width="5.140625" customWidth="true"/>
+    <col min="54" max="54" width="4.140625" customWidth="true"/>
+    <col min="55" max="55" width="3.140625" customWidth="true"/>
+    <col min="56" max="56" width="2.140625" customWidth="true"/>
+    <col min="57" max="57" width="2.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
-        <v>5</v>
+      <c r="A1" s="49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>50</v>
+      </c>
+      <c r="Q2">
+        <v>60</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>30</v>
+      </c>
+      <c r="W2">
+        <v>40</v>
+      </c>
+      <c r="X2">
+        <v>50</v>
+      </c>
+      <c r="Y2">
+        <v>60</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>10</v>
+      </c>
+      <c r="AB2">
+        <v>15</v>
+      </c>
+      <c r="AC2">
+        <v>20</v>
+      </c>
+      <c r="AD2">
+        <v>30</v>
+      </c>
+      <c r="AE2">
+        <v>40</v>
+      </c>
+      <c r="AF2">
+        <v>50</v>
+      </c>
+      <c r="AG2">
+        <v>60</v>
+      </c>
+      <c r="AH2">
+        <v>5</v>
+      </c>
+      <c r="AI2">
+        <v>10</v>
+      </c>
+      <c r="AJ2">
+        <v>15</v>
+      </c>
+      <c r="AK2">
+        <v>20</v>
+      </c>
+      <c r="AL2">
+        <v>30</v>
+      </c>
+      <c r="AM2">
+        <v>40</v>
+      </c>
+      <c r="AN2">
+        <v>50</v>
+      </c>
+      <c r="AO2">
+        <v>60</v>
+      </c>
+      <c r="AP2">
+        <v>5</v>
+      </c>
+      <c r="AQ2">
+        <v>10</v>
+      </c>
+      <c r="AR2">
+        <v>15</v>
+      </c>
+      <c r="AS2">
+        <v>20</v>
+      </c>
+      <c r="AT2">
+        <v>30</v>
+      </c>
+      <c r="AU2">
+        <v>40</v>
+      </c>
+      <c r="AV2">
+        <v>50</v>
+      </c>
+      <c r="AW2">
+        <v>60</v>
+      </c>
+      <c r="AX2">
+        <v>5</v>
+      </c>
+      <c r="AY2">
+        <v>10</v>
+      </c>
+      <c r="AZ2">
+        <v>15</v>
+      </c>
+      <c r="BA2">
+        <v>20</v>
+      </c>
+      <c r="BB2">
+        <v>30</v>
+      </c>
+      <c r="BC2">
+        <v>40</v>
+      </c>
+      <c r="BD2">
+        <v>50</v>
+      </c>
+      <c r="BE2">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+      <c r="AB3">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>5</v>
+      </c>
+      <c r="AH3">
+        <v>10</v>
+      </c>
+      <c r="AI3">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
+        <v>10</v>
+      </c>
+      <c r="AK3">
+        <v>10</v>
+      </c>
+      <c r="AL3">
+        <v>10</v>
+      </c>
+      <c r="AM3">
+        <v>10</v>
+      </c>
+      <c r="AN3">
+        <v>10</v>
+      </c>
+      <c r="AO3">
+        <v>10</v>
+      </c>
+      <c r="AP3">
+        <v>15</v>
+      </c>
+      <c r="AQ3">
+        <v>15</v>
+      </c>
+      <c r="AR3">
+        <v>15</v>
+      </c>
+      <c r="AS3">
+        <v>15</v>
+      </c>
+      <c r="AT3">
+        <v>15</v>
+      </c>
+      <c r="AU3">
+        <v>15</v>
+      </c>
+      <c r="AV3">
+        <v>15</v>
+      </c>
+      <c r="AW3">
+        <v>15</v>
+      </c>
+      <c r="AX3">
+        <v>20</v>
+      </c>
+      <c r="AY3">
+        <v>20</v>
+      </c>
+      <c r="AZ3">
+        <v>20</v>
+      </c>
+      <c r="BA3">
+        <v>20</v>
+      </c>
+      <c r="BB3">
+        <v>20</v>
+      </c>
+      <c r="BC3">
+        <v>20</v>
+      </c>
+      <c r="BD3">
+        <v>20</v>
+      </c>
+      <c r="BE3">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1498</v>
+        <v>18403</v>
+      </c>
+      <c r="C4">
+        <v>30842</v>
+      </c>
+      <c r="D4">
+        <v>32909</v>
+      </c>
+      <c r="E4">
+        <v>35263</v>
+      </c>
+      <c r="F4">
+        <v>42536</v>
+      </c>
+      <c r="G4">
+        <v>49450</v>
+      </c>
+      <c r="H4">
+        <v>53635</v>
+      </c>
+      <c r="I4">
+        <v>56137</v>
+      </c>
+      <c r="J4">
+        <v>12691</v>
+      </c>
+      <c r="K4">
+        <v>15537</v>
+      </c>
+      <c r="L4">
+        <v>11379</v>
+      </c>
+      <c r="M4">
+        <v>8160</v>
+      </c>
+      <c r="N4">
+        <v>5386</v>
+      </c>
+      <c r="O4">
+        <v>4099</v>
+      </c>
+      <c r="P4">
+        <v>3507</v>
+      </c>
+      <c r="Q4">
+        <v>2828</v>
+      </c>
+      <c r="R4">
+        <v>9900</v>
+      </c>
+      <c r="S4">
+        <v>10147</v>
+      </c>
+      <c r="T4">
+        <v>5885</v>
+      </c>
+      <c r="U4">
+        <v>3106</v>
+      </c>
+      <c r="V4">
+        <v>1149</v>
+      </c>
+      <c r="W4">
+        <v>661</v>
+      </c>
+      <c r="X4">
+        <v>334</v>
+      </c>
+      <c r="Y4">
+        <v>157</v>
+      </c>
+      <c r="Z4">
+        <v>8220</v>
+      </c>
+      <c r="AA4">
+        <v>6640</v>
+      </c>
+      <c r="AB4">
+        <v>3274</v>
+      </c>
+      <c r="AC4">
+        <v>1499</v>
+      </c>
+      <c r="AD4">
+        <v>559</v>
+      </c>
+      <c r="AE4">
+        <v>263</v>
+      </c>
+      <c r="AF4">
+        <v>168</v>
+      </c>
+      <c r="AG4">
+        <v>20</v>
+      </c>
+      <c r="AH4">
+        <v>4855</v>
+      </c>
+      <c r="AI4">
+        <v>1307</v>
+      </c>
+      <c r="AJ4">
+        <v>482</v>
+      </c>
+      <c r="AK4">
+        <v>284</v>
+      </c>
+      <c r="AL4">
+        <v>49</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>3856</v>
+      </c>
+      <c r="AQ4">
+        <v>407</v>
+      </c>
+      <c r="AR4">
+        <v>122</v>
+      </c>
+      <c r="AS4">
+        <v>17</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>3426</v>
+      </c>
+      <c r="AY4">
+        <v>110</v>
+      </c>
+      <c r="AZ4">
+        <v>10</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>71731</v>
+      </c>
+      <c r="C5">
+        <v>119618</v>
+      </c>
+      <c r="D5">
+        <v>143847</v>
+      </c>
+      <c r="E5">
+        <v>162413</v>
+      </c>
+      <c r="F5">
+        <v>187032</v>
+      </c>
+      <c r="G5">
+        <v>192572</v>
+      </c>
+      <c r="H5">
+        <v>192592</v>
+      </c>
+      <c r="I5">
+        <v>192572</v>
+      </c>
+      <c r="J5">
+        <v>61345</v>
+      </c>
+      <c r="K5">
+        <v>70221</v>
+      </c>
+      <c r="L5">
+        <v>80607</v>
+      </c>
+      <c r="M5">
+        <v>95003</v>
+      </c>
+      <c r="N5">
+        <v>122925</v>
+      </c>
+      <c r="O5">
+        <v>147629</v>
+      </c>
+      <c r="P5">
+        <v>166759</v>
+      </c>
+      <c r="Q5">
+        <v>178522</v>
+      </c>
+      <c r="R5">
+        <v>56874</v>
+      </c>
+      <c r="S5">
+        <v>48192</v>
+      </c>
+      <c r="T5">
+        <v>41691</v>
+      </c>
+      <c r="U5">
+        <v>39378</v>
+      </c>
+      <c r="V5">
+        <v>38299</v>
+      </c>
+      <c r="W5">
+        <v>40110</v>
+      </c>
+      <c r="X5">
+        <v>43602</v>
+      </c>
+      <c r="Y5">
+        <v>47242</v>
+      </c>
+      <c r="Z5">
+        <v>53824</v>
+      </c>
+      <c r="AA5">
+        <v>37964</v>
+      </c>
+      <c r="AB5">
+        <v>29843</v>
+      </c>
+      <c r="AC5">
+        <v>25136</v>
+      </c>
+      <c r="AD5">
+        <v>20059</v>
+      </c>
+      <c r="AE5">
+        <v>18248</v>
+      </c>
+      <c r="AF5">
+        <v>17041</v>
+      </c>
+      <c r="AG5">
+        <v>16874</v>
+      </c>
+      <c r="AH5">
+        <v>46017</v>
+      </c>
+      <c r="AI5">
+        <v>18844</v>
+      </c>
+      <c r="AJ5">
+        <v>11825</v>
+      </c>
+      <c r="AK5">
+        <v>8068</v>
+      </c>
+      <c r="AL5">
+        <v>3496</v>
+      </c>
+      <c r="AM5">
+        <v>1561</v>
+      </c>
+      <c r="AN5">
+        <v>830</v>
+      </c>
+      <c r="AO5">
+        <v>614</v>
+      </c>
+      <c r="AP5">
+        <v>43314</v>
+      </c>
+      <c r="AQ5">
+        <v>11945</v>
+      </c>
+      <c r="AR5">
+        <v>5825</v>
+      </c>
+      <c r="AS5">
+        <v>3428</v>
+      </c>
+      <c r="AT5">
+        <v>1056</v>
+      </c>
+      <c r="AU5">
+        <v>527</v>
+      </c>
+      <c r="AV5">
+        <v>310</v>
+      </c>
+      <c r="AW5">
+        <v>163</v>
+      </c>
+      <c r="AX5">
+        <v>41143</v>
+      </c>
+      <c r="AY5">
+        <v>8489</v>
+      </c>
+      <c r="AZ5">
+        <v>3148</v>
+      </c>
+      <c r="BA5">
+        <v>1537</v>
+      </c>
+      <c r="BB5">
+        <v>522</v>
+      </c>
+      <c r="BC5">
+        <v>295</v>
+      </c>
+      <c r="BD5">
+        <v>121</v>
+      </c>
+      <c r="BE5">
+        <v>49</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
-        <v>6</v>
+      <c r="A6" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>126781</v>
+      </c>
+      <c r="C6">
+        <v>153566</v>
+      </c>
+      <c r="D6">
+        <v>172720</v>
+      </c>
+      <c r="E6">
+        <v>185126</v>
+      </c>
+      <c r="F6">
+        <v>192590</v>
+      </c>
+      <c r="G6">
+        <v>192654</v>
+      </c>
+      <c r="H6">
+        <v>192644</v>
+      </c>
+      <c r="I6">
+        <v>192625</v>
+      </c>
+      <c r="J6">
+        <v>108739</v>
+      </c>
+      <c r="K6">
+        <v>117131</v>
+      </c>
+      <c r="L6">
+        <v>134153</v>
+      </c>
+      <c r="M6">
+        <v>148966</v>
+      </c>
+      <c r="N6">
+        <v>171612</v>
+      </c>
+      <c r="O6">
+        <v>186717</v>
+      </c>
+      <c r="P6">
+        <v>192262</v>
+      </c>
+      <c r="Q6">
+        <v>192607</v>
+      </c>
+      <c r="R6">
+        <v>99085</v>
+      </c>
+      <c r="S6">
+        <v>94089</v>
+      </c>
+      <c r="T6">
+        <v>98016</v>
+      </c>
+      <c r="U6">
+        <v>111119</v>
+      </c>
+      <c r="V6">
+        <v>135169</v>
+      </c>
+      <c r="W6">
+        <v>155236</v>
+      </c>
+      <c r="X6">
+        <v>171577</v>
+      </c>
+      <c r="Y6">
+        <v>183443</v>
+      </c>
+      <c r="Z6">
+        <v>94176</v>
+      </c>
+      <c r="AA6">
+        <v>81692</v>
+      </c>
+      <c r="AB6">
+        <v>66992</v>
+      </c>
+      <c r="AC6">
+        <v>65192</v>
+      </c>
+      <c r="AD6">
+        <v>71546</v>
+      </c>
+      <c r="AE6">
+        <v>80965</v>
+      </c>
+      <c r="AF6">
+        <v>91553</v>
+      </c>
+      <c r="AG6">
+        <v>102796</v>
+      </c>
+      <c r="AH6">
+        <v>85352</v>
+      </c>
+      <c r="AI6">
+        <v>58146</v>
+      </c>
+      <c r="AJ6">
+        <v>30822</v>
+      </c>
+      <c r="AK6">
+        <v>23470</v>
+      </c>
+      <c r="AL6">
+        <v>16455</v>
+      </c>
+      <c r="AM6">
+        <v>11814</v>
+      </c>
+      <c r="AN6">
+        <v>8616</v>
+      </c>
+      <c r="AO6">
+        <v>6195</v>
+      </c>
+      <c r="AP6">
+        <v>79829</v>
+      </c>
+      <c r="AQ6">
+        <v>49645</v>
+      </c>
+      <c r="AR6">
+        <v>20443</v>
+      </c>
+      <c r="AS6">
+        <v>13964</v>
+      </c>
+      <c r="AT6">
+        <v>8299</v>
+      </c>
+      <c r="AU6">
+        <v>4759</v>
+      </c>
+      <c r="AV6">
+        <v>2738</v>
+      </c>
+      <c r="AW6">
+        <v>1581</v>
+      </c>
+      <c r="AX6">
+        <v>76456</v>
+      </c>
+      <c r="AY6">
+        <v>44422</v>
+      </c>
+      <c r="AZ6">
+        <v>14839</v>
+      </c>
+      <c r="BA6">
+        <v>8974</v>
+      </c>
+      <c r="BB6">
+        <v>4685</v>
+      </c>
+      <c r="BC6">
+        <v>2251</v>
+      </c>
+      <c r="BD6">
+        <v>1085</v>
+      </c>
+      <c r="BE6">
+        <v>676</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
-        <v>1</v>
+      <c r="A7" s="49" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>151410</v>
+      </c>
+      <c r="C7">
+        <v>173955</v>
+      </c>
+      <c r="D7">
+        <v>188208</v>
+      </c>
+      <c r="E7">
+        <v>192297</v>
+      </c>
+      <c r="F7">
+        <v>192689</v>
+      </c>
+      <c r="G7">
+        <v>192675</v>
+      </c>
+      <c r="H7">
+        <v>192667</v>
+      </c>
+      <c r="I7">
+        <v>192655</v>
+      </c>
+      <c r="J7">
+        <v>129442</v>
+      </c>
+      <c r="K7">
+        <v>142332</v>
+      </c>
+      <c r="L7">
+        <v>157313</v>
+      </c>
+      <c r="M7">
+        <v>169355</v>
+      </c>
+      <c r="N7">
+        <v>185864</v>
+      </c>
+      <c r="O7">
+        <v>192190</v>
+      </c>
+      <c r="P7">
+        <v>192655</v>
+      </c>
+      <c r="Q7">
+        <v>192646</v>
+      </c>
+      <c r="R7">
+        <v>118933</v>
+      </c>
+      <c r="S7">
+        <v>117739</v>
+      </c>
+      <c r="T7">
+        <v>129137</v>
+      </c>
+      <c r="U7">
+        <v>141018</v>
+      </c>
+      <c r="V7">
+        <v>160666</v>
+      </c>
+      <c r="W7">
+        <v>175728</v>
+      </c>
+      <c r="X7">
+        <v>186483</v>
+      </c>
+      <c r="Y7">
+        <v>191676</v>
+      </c>
+      <c r="Z7">
+        <v>113285</v>
+      </c>
+      <c r="AA7">
+        <v>105149</v>
+      </c>
+      <c r="AB7">
+        <v>104713</v>
+      </c>
+      <c r="AC7">
+        <v>114416</v>
+      </c>
+      <c r="AD7">
+        <v>134001</v>
+      </c>
+      <c r="AE7">
+        <v>150943</v>
+      </c>
+      <c r="AF7">
+        <v>164991</v>
+      </c>
+      <c r="AG7">
+        <v>176620</v>
+      </c>
+      <c r="AH7">
+        <v>99695</v>
+      </c>
+      <c r="AI7">
+        <v>81632</v>
+      </c>
+      <c r="AJ7">
+        <v>63390</v>
+      </c>
+      <c r="AK7">
+        <v>42149</v>
+      </c>
+      <c r="AL7">
+        <v>32229</v>
+      </c>
+      <c r="AM7">
+        <v>26753</v>
+      </c>
+      <c r="AN7">
+        <v>23022</v>
+      </c>
+      <c r="AO7">
+        <v>21130</v>
+      </c>
+      <c r="AP7">
+        <v>93785</v>
+      </c>
+      <c r="AQ7">
+        <v>72384</v>
+      </c>
+      <c r="AR7">
+        <v>50492</v>
+      </c>
+      <c r="AS7">
+        <v>28190</v>
+      </c>
+      <c r="AT7">
+        <v>18962</v>
+      </c>
+      <c r="AU7">
+        <v>13870</v>
+      </c>
+      <c r="AV7">
+        <v>10265</v>
+      </c>
+      <c r="AW7">
+        <v>7765</v>
+      </c>
+      <c r="AX7">
+        <v>90919</v>
+      </c>
+      <c r="AY7">
+        <v>65891</v>
+      </c>
+      <c r="AZ7">
+        <v>41840</v>
+      </c>
+      <c r="BA7">
+        <v>20960</v>
+      </c>
+      <c r="BB7">
+        <v>12713</v>
+      </c>
+      <c r="BC7">
+        <v>8426</v>
+      </c>
+      <c r="BD7">
+        <v>5488</v>
+      </c>
+      <c r="BE7">
+        <v>3604</v>
       </c>
     </row>
     <row r="8">
@@ -200,11 +1335,1049 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
-        <v>3</v>
+      <c r="A9" s="57" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>40</v>
+      </c>
+      <c r="P10">
+        <v>50</v>
+      </c>
+      <c r="Q10">
+        <v>60</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <v>30</v>
+      </c>
+      <c r="W10">
+        <v>40</v>
+      </c>
+      <c r="X10">
+        <v>50</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
+        <v>15</v>
+      </c>
+      <c r="AC10">
+        <v>20</v>
+      </c>
+      <c r="AD10">
+        <v>30</v>
+      </c>
+      <c r="AE10">
+        <v>40</v>
+      </c>
+      <c r="AF10">
+        <v>50</v>
+      </c>
+      <c r="AG10">
+        <v>60</v>
+      </c>
+      <c r="AH10">
+        <v>5</v>
+      </c>
+      <c r="AI10">
+        <v>10</v>
+      </c>
+      <c r="AJ10">
+        <v>15</v>
+      </c>
+      <c r="AK10">
+        <v>20</v>
+      </c>
+      <c r="AL10">
+        <v>30</v>
+      </c>
+      <c r="AM10">
+        <v>40</v>
+      </c>
+      <c r="AN10">
+        <v>50</v>
+      </c>
+      <c r="AO10">
+        <v>60</v>
+      </c>
+      <c r="AP10">
+        <v>5</v>
+      </c>
+      <c r="AQ10">
+        <v>10</v>
+      </c>
+      <c r="AR10">
+        <v>15</v>
+      </c>
+      <c r="AS10">
+        <v>20</v>
+      </c>
+      <c r="AT10">
+        <v>30</v>
+      </c>
+      <c r="AU10">
+        <v>40</v>
+      </c>
+      <c r="AV10">
+        <v>50</v>
+      </c>
+      <c r="AW10">
+        <v>60</v>
+      </c>
+      <c r="AX10">
+        <v>5</v>
+      </c>
+      <c r="AY10">
+        <v>10</v>
+      </c>
+      <c r="AZ10">
+        <v>15</v>
+      </c>
+      <c r="BA10">
+        <v>20</v>
+      </c>
+      <c r="BB10">
+        <v>30</v>
+      </c>
+      <c r="BC10">
+        <v>40</v>
+      </c>
+      <c r="BD10">
+        <v>50</v>
+      </c>
+      <c r="BE10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
+        <v>10</v>
+      </c>
+      <c r="AI11">
+        <v>10</v>
+      </c>
+      <c r="AJ11">
+        <v>10</v>
+      </c>
+      <c r="AK11">
+        <v>10</v>
+      </c>
+      <c r="AL11">
+        <v>10</v>
+      </c>
+      <c r="AM11">
+        <v>10</v>
+      </c>
+      <c r="AN11">
+        <v>10</v>
+      </c>
+      <c r="AO11">
+        <v>10</v>
+      </c>
+      <c r="AP11">
+        <v>15</v>
+      </c>
+      <c r="AQ11">
+        <v>15</v>
+      </c>
+      <c r="AR11">
+        <v>15</v>
+      </c>
+      <c r="AS11">
+        <v>15</v>
+      </c>
+      <c r="AT11">
+        <v>15</v>
+      </c>
+      <c r="AU11">
+        <v>15</v>
+      </c>
+      <c r="AV11">
+        <v>15</v>
+      </c>
+      <c r="AW11">
+        <v>15</v>
+      </c>
+      <c r="AX11">
+        <v>20</v>
+      </c>
+      <c r="AY11">
+        <v>20</v>
+      </c>
+      <c r="AZ11">
+        <v>20</v>
+      </c>
+      <c r="BA11">
+        <v>20</v>
+      </c>
+      <c r="BB11">
+        <v>20</v>
+      </c>
+      <c r="BC11">
+        <v>20</v>
+      </c>
+      <c r="BD11">
+        <v>20</v>
+      </c>
+      <c r="BE11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>7619</v>
+      </c>
+      <c r="C12">
+        <v>10182</v>
+      </c>
+      <c r="D12">
+        <v>8084</v>
+      </c>
+      <c r="E12">
+        <v>6190</v>
+      </c>
+      <c r="F12">
+        <v>4387</v>
+      </c>
+      <c r="G12">
+        <v>2488</v>
+      </c>
+      <c r="H12">
+        <v>1405</v>
+      </c>
+      <c r="I12">
+        <v>543</v>
+      </c>
+      <c r="J12">
+        <v>4043</v>
+      </c>
+      <c r="K12">
+        <v>3379</v>
+      </c>
+      <c r="L12">
+        <v>1647</v>
+      </c>
+      <c r="M12">
+        <v>756</v>
+      </c>
+      <c r="N12">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>2542</v>
+      </c>
+      <c r="S12">
+        <v>1723</v>
+      </c>
+      <c r="T12">
+        <v>619</v>
+      </c>
+      <c r="U12">
+        <v>205</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1730</v>
+      </c>
+      <c r="AA12">
+        <v>820</v>
+      </c>
+      <c r="AB12">
+        <v>246</v>
+      </c>
+      <c r="AC12">
+        <v>17</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>455</v>
+      </c>
+      <c r="AI12">
+        <v>39</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>228</v>
+      </c>
+      <c r="AQ12">
+        <v>5</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>156</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>43199</v>
+      </c>
+      <c r="C13">
+        <v>74284</v>
+      </c>
+      <c r="D13">
+        <v>92270</v>
+      </c>
+      <c r="E13">
+        <v>106126</v>
+      </c>
+      <c r="F13">
+        <v>123747</v>
+      </c>
+      <c r="G13">
+        <v>126753</v>
+      </c>
+      <c r="H13">
+        <v>126110</v>
+      </c>
+      <c r="I13">
+        <v>125329</v>
+      </c>
+      <c r="J13">
+        <v>35455</v>
+      </c>
+      <c r="K13">
+        <v>36742</v>
+      </c>
+      <c r="L13">
+        <v>43458</v>
+      </c>
+      <c r="M13">
+        <v>52794</v>
+      </c>
+      <c r="N13">
+        <v>72440</v>
+      </c>
+      <c r="O13">
+        <v>89680</v>
+      </c>
+      <c r="P13">
+        <v>101999</v>
+      </c>
+      <c r="Q13">
+        <v>109595</v>
+      </c>
+      <c r="R13">
+        <v>32671</v>
+      </c>
+      <c r="S13">
+        <v>20505</v>
+      </c>
+      <c r="T13">
+        <v>16526</v>
+      </c>
+      <c r="U13">
+        <v>13557</v>
+      </c>
+      <c r="V13">
+        <v>9471</v>
+      </c>
+      <c r="W13">
+        <v>7123</v>
+      </c>
+      <c r="X13">
+        <v>5901</v>
+      </c>
+      <c r="Y13">
+        <v>4997</v>
+      </c>
+      <c r="Z13">
+        <v>30696</v>
+      </c>
+      <c r="AA13">
+        <v>13919</v>
+      </c>
+      <c r="AB13">
+        <v>9821</v>
+      </c>
+      <c r="AC13">
+        <v>6863</v>
+      </c>
+      <c r="AD13">
+        <v>3434</v>
+      </c>
+      <c r="AE13">
+        <v>1902</v>
+      </c>
+      <c r="AF13">
+        <v>946</v>
+      </c>
+      <c r="AG13">
+        <v>477</v>
+      </c>
+      <c r="AH13">
+        <v>25924</v>
+      </c>
+      <c r="AI13">
+        <v>4127</v>
+      </c>
+      <c r="AJ13">
+        <v>2096</v>
+      </c>
+      <c r="AK13">
+        <v>981</v>
+      </c>
+      <c r="AL13">
+        <v>263</v>
+      </c>
+      <c r="AM13">
+        <v>16</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>24441</v>
+      </c>
+      <c r="AQ13">
+        <v>1779</v>
+      </c>
+      <c r="AR13">
+        <v>672</v>
+      </c>
+      <c r="AS13">
+        <v>238</v>
+      </c>
+      <c r="AT13">
+        <v>6</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>22900</v>
+      </c>
+      <c r="AY13">
+        <v>849</v>
+      </c>
+      <c r="AZ13">
+        <v>239</v>
+      </c>
+      <c r="BA13">
+        <v>40</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>80438</v>
+      </c>
+      <c r="C14">
+        <v>99894</v>
+      </c>
+      <c r="D14">
+        <v>114830</v>
+      </c>
+      <c r="E14">
+        <v>123796</v>
+      </c>
+      <c r="F14">
+        <v>128315</v>
+      </c>
+      <c r="G14">
+        <v>128066</v>
+      </c>
+      <c r="H14">
+        <v>127712</v>
+      </c>
+      <c r="I14">
+        <v>127401</v>
+      </c>
+      <c r="J14">
+        <v>66845</v>
+      </c>
+      <c r="K14">
+        <v>72574</v>
+      </c>
+      <c r="L14">
+        <v>85190</v>
+      </c>
+      <c r="M14">
+        <v>96163</v>
+      </c>
+      <c r="N14">
+        <v>113094</v>
+      </c>
+      <c r="O14">
+        <v>123626</v>
+      </c>
+      <c r="P14">
+        <v>127006</v>
+      </c>
+      <c r="Q14">
+        <v>126797</v>
+      </c>
+      <c r="R14">
+        <v>59435</v>
+      </c>
+      <c r="S14">
+        <v>54820</v>
+      </c>
+      <c r="T14">
+        <v>57456</v>
+      </c>
+      <c r="U14">
+        <v>66948</v>
+      </c>
+      <c r="V14">
+        <v>84583</v>
+      </c>
+      <c r="W14">
+        <v>99376</v>
+      </c>
+      <c r="X14">
+        <v>110867</v>
+      </c>
+      <c r="Y14">
+        <v>118830</v>
+      </c>
+      <c r="Z14">
+        <v>56017</v>
+      </c>
+      <c r="AA14">
+        <v>45542</v>
+      </c>
+      <c r="AB14">
+        <v>33569</v>
+      </c>
+      <c r="AC14">
+        <v>32160</v>
+      </c>
+      <c r="AD14">
+        <v>34325</v>
+      </c>
+      <c r="AE14">
+        <v>38779</v>
+      </c>
+      <c r="AF14">
+        <v>44319</v>
+      </c>
+      <c r="AG14">
+        <v>50434</v>
+      </c>
+      <c r="AH14">
+        <v>51210</v>
+      </c>
+      <c r="AI14">
+        <v>29656</v>
+      </c>
+      <c r="AJ14">
+        <v>9414</v>
+      </c>
+      <c r="AK14">
+        <v>6667</v>
+      </c>
+      <c r="AL14">
+        <v>3324</v>
+      </c>
+      <c r="AM14">
+        <v>1776</v>
+      </c>
+      <c r="AN14">
+        <v>916</v>
+      </c>
+      <c r="AO14">
+        <v>465</v>
+      </c>
+      <c r="AP14">
+        <v>47483</v>
+      </c>
+      <c r="AQ14">
+        <v>25193</v>
+      </c>
+      <c r="AR14">
+        <v>4499</v>
+      </c>
+      <c r="AS14">
+        <v>2795</v>
+      </c>
+      <c r="AT14">
+        <v>1003</v>
+      </c>
+      <c r="AU14">
+        <v>437</v>
+      </c>
+      <c r="AV14">
+        <v>151</v>
+      </c>
+      <c r="AW14">
+        <v>18</v>
+      </c>
+      <c r="AX14">
+        <v>45088</v>
+      </c>
+      <c r="AY14">
+        <v>22288</v>
+      </c>
+      <c r="AZ14">
+        <v>2465</v>
+      </c>
+      <c r="BA14">
+        <v>1326</v>
+      </c>
+      <c r="BB14">
+        <v>402</v>
+      </c>
+      <c r="BC14">
+        <v>86</v>
+      </c>
+      <c r="BD14">
+        <v>3</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>98590</v>
+      </c>
+      <c r="C15">
+        <v>116176</v>
+      </c>
+      <c r="D15">
+        <v>126343</v>
+      </c>
+      <c r="E15">
+        <v>128762</v>
+      </c>
+      <c r="F15">
+        <v>128730</v>
+      </c>
+      <c r="G15">
+        <v>128482</v>
+      </c>
+      <c r="H15">
+        <v>128278</v>
+      </c>
+      <c r="I15">
+        <v>128067</v>
+      </c>
+      <c r="J15">
+        <v>81765</v>
+      </c>
+      <c r="K15">
+        <v>91615</v>
+      </c>
+      <c r="L15">
+        <v>103172</v>
+      </c>
+      <c r="M15">
+        <v>112202</v>
+      </c>
+      <c r="N15">
+        <v>124133</v>
+      </c>
+      <c r="O15">
+        <v>128004</v>
+      </c>
+      <c r="P15">
+        <v>128073</v>
+      </c>
+      <c r="Q15">
+        <v>127778</v>
+      </c>
+      <c r="R15">
+        <v>73816</v>
+      </c>
+      <c r="S15">
+        <v>72842</v>
+      </c>
+      <c r="T15">
+        <v>81594</v>
+      </c>
+      <c r="U15">
+        <v>90577</v>
+      </c>
+      <c r="V15">
+        <v>105083</v>
+      </c>
+      <c r="W15">
+        <v>116103</v>
+      </c>
+      <c r="X15">
+        <v>123539</v>
+      </c>
+      <c r="Y15">
+        <v>126851</v>
+      </c>
+      <c r="Z15">
+        <v>69926</v>
+      </c>
+      <c r="AA15">
+        <v>63232</v>
+      </c>
+      <c r="AB15">
+        <v>63044</v>
+      </c>
+      <c r="AC15">
+        <v>70029</v>
+      </c>
+      <c r="AD15">
+        <v>84572</v>
+      </c>
+      <c r="AE15">
+        <v>97047</v>
+      </c>
+      <c r="AF15">
+        <v>107232</v>
+      </c>
+      <c r="AG15">
+        <v>115607</v>
+      </c>
+      <c r="AH15">
+        <v>60805</v>
+      </c>
+      <c r="AI15">
+        <v>46778</v>
+      </c>
+      <c r="AJ15">
+        <v>32653</v>
+      </c>
+      <c r="AK15">
+        <v>15801</v>
+      </c>
+      <c r="AL15">
+        <v>10772</v>
+      </c>
+      <c r="AM15">
+        <v>7339</v>
+      </c>
+      <c r="AN15">
+        <v>4922</v>
+      </c>
+      <c r="AO15">
+        <v>3567</v>
+      </c>
+      <c r="AP15">
+        <v>57040</v>
+      </c>
+      <c r="AQ15">
+        <v>41078</v>
+      </c>
+      <c r="AR15">
+        <v>24419</v>
+      </c>
+      <c r="AS15">
+        <v>7918</v>
+      </c>
+      <c r="AT15">
+        <v>4613</v>
+      </c>
+      <c r="AU15">
+        <v>2525</v>
+      </c>
+      <c r="AV15">
+        <v>1463</v>
+      </c>
+      <c r="AW15">
+        <v>851</v>
+      </c>
+      <c r="AX15">
+        <v>55454</v>
+      </c>
+      <c r="AY15">
+        <v>37011</v>
+      </c>
+      <c r="AZ15">
+        <v>18880</v>
+      </c>
+      <c r="BA15">
+        <v>4629</v>
+      </c>
+      <c r="BB15">
+        <v>2291</v>
+      </c>
+      <c r="BC15">
+        <v>1030</v>
+      </c>
+      <c r="BD15">
+        <v>548</v>
+      </c>
+      <c r="BE15">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
